--- a/special_sections/roller_compacted_concrete_pavement/excel_files/rccp_info.xlsx
+++ b/special_sections/roller_compacted_concrete_pavement/excel_files/rccp_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://texastechuniversity-my.sharepoint.com/personal/samuel_alalade_ttu_edu/Documents/Research/PhD/0-7147/Tasks/Task 9/Shared FIles/rpdb/sections_info/special_sections/roller_compacted_concrete_pavement/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{E14047FE-B276-42B9-989B-9BA54482A182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED61D2E2-0F8B-4B24-BB1D-37EC386B07CB}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{E14047FE-B276-42B9-989B-9BA54482A182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97EB2142-65A3-4857-805B-06B39E49C2EE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46338B51-B72E-4388-96A6-DFF381EBC717}"/>
+    <workbookView xWindow="28680" yWindow="255" windowWidth="25440" windowHeight="15390" xr2:uid="{46338B51-B72E-4388-96A6-DFF381EBC717}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Section Data Type</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>32.457882, -98.645531</t>
+  </si>
+  <si>
+    <t>50th St</t>
   </si>
 </sst>
 </file>
@@ -619,10 +622,13 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
@@ -710,6 +716,9 @@
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>28</v>
